--- a/biology/Zoologie/Choucador_iris/Choucador_iris.xlsx
+++ b/biology/Zoologie/Choucador_iris/Choucador_iris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lamprotornis iris
 Le Choucador iris (Lamprotornis iris) est une espèce de petits oiseaux de la famille des Sturnidae endémique d'Afrique de l'ouest, peuplant les plaines et les savanes. C'est une espèce monotypique.
@@ -512,7 +524,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On le trouve en Guinée, au Sierra Leone ainsi qu'en Côte d'Ivoire.
 </t>
@@ -543,7 +557,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se nourrit principalement de fruits et de graines, notamment des genres Ficus et Harungana. Il se nourrit aussi d'insectes dont des fourmis.
 </t>
